--- a/data/trans_dic/P53_R-Urba-trans_dic.xlsx
+++ b/data/trans_dic/P53_R-Urba-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:Q12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -529,12 +530,15 @@
     <col width="14" customWidth="1" min="12" max="12"/>
     <col width="14" customWidth="1" min="13" max="13"/>
     <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población con &lt;=  900 euros de ingresos mensuales netos en el mes anterior</t>
+          <t>Población con &lt;=  900 euros de ingresos mensuales netos en el mes anterior (tasa de respuesta: 90,32%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -546,22 +550,25 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
       <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="inlineStr">
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="L1" s="3" t="n"/>
-      <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -588,42 +595,57 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -642,6 +664,9 @@
       <c r="L3" s="2" t="n"/>
       <c r="M3" s="2" t="n"/>
       <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -661,57 +686,72 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>17,86%</t>
+          <t>17,97%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>16,9%</t>
+          <t>17,72%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>18,62%</t>
+          <t>18,78%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>27,64%</t>
+          <t>11,05%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>25,19%</t>
+          <t>27,65%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>24,33%</t>
+          <t>24,72%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>23,96%</t>
+          <t>24,66%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
+          <t>24,54%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>13,93%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
           <t>23,2%</t>
         </is>
       </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>21,59%</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>20,66%</t>
-        </is>
-      </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>21,34%</t>
+          <t>21,41%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>21,23%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>21,72%</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>12,54%</t>
         </is>
       </c>
     </row>
@@ -724,62 +764,77 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>15,22; 23,3</t>
+          <t>15,33; 23,76</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>14,58; 22,56</t>
+          <t>14,34; 22,32</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>12,84; 22,79</t>
+          <t>13,26; 24,42</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>14,26; 26,39</t>
+          <t>14,64; 26,34</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>24,52; 31,58</t>
+          <t>8,21; 14,92</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>21,44; 29,3</t>
+          <t>24,33; 31,09</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>20,48; 28,54</t>
+          <t>21,01; 28,46</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>20,42; 27,95</t>
+          <t>21,1; 28,71</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>20,85; 25,85</t>
+          <t>20,63; 28,32</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>18,85; 24,3</t>
+          <t>10,75; 17,95</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>17,94; 23,95</t>
+          <t>20,73; 25,75</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>18,29; 25,46</t>
+          <t>18,78; 24,42</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>18,32; 25,0</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>18,71; 25,32</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>10,15; 15,07</t>
         </is>
       </c>
     </row>
@@ -801,57 +856,72 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>24,26%</t>
+          <t>22,31%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>24,48%</t>
+          <t>23,9%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>27,58%</t>
+          <t>27,11%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>32,7%</t>
+          <t>14,92%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>30,97%</t>
+          <t>32,69%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>28,78%</t>
+          <t>30,15%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>28,75%</t>
+          <t>28,69%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>25,93%</t>
+          <t>28,79%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>27,54%</t>
+          <t>21,54%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>26,54%</t>
+          <t>25,92%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>28,14%</t>
+          <t>26,16%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>26,21%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>27,91%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>18,21%</t>
         </is>
       </c>
     </row>
@@ -864,62 +934,77 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>15,7; 23,85</t>
+          <t>15,95; 24,01</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>18,77; 30,43</t>
+          <t>17,65; 28,2</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>19,01; 30,49</t>
+          <t>18,86; 30,42</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>22,33; 34,84</t>
+          <t>21,29; 34,21</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>28,41; 36,79</t>
+          <t>11,03; 19,9</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>26,19; 35,85</t>
+          <t>28,79; 36,93</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>23,75; 33,99</t>
+          <t>25,77; 34,78</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>24,07; 33,17</t>
+          <t>23,88; 33,81</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>23,16; 29,01</t>
+          <t>24,09; 34,79</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>23,98; 31,46</t>
+          <t>17,3; 27,55</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>22,6; 30,08</t>
+          <t>23,24; 29,06</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>24,59; 32,88</t>
+          <t>22,94; 29,75</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>22,41; 30,22</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>24,24; 31,95</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>15,19; 22,05</t>
         </is>
       </c>
     </row>
@@ -936,62 +1021,77 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>31,31%</t>
+          <t>31,32%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>30,09%</t>
+          <t>29,77%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>28,03%</t>
+          <t>29,17%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>26,75%</t>
+          <t>27,49%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
+          <t>24,79%</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
           <t>38,62%</t>
         </is>
       </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>34,2%</t>
-        </is>
-      </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>38,69%</t>
+          <t>36,36%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>37,92%</t>
+          <t>39,32%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
+          <t>38,1%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>31,36%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
           <t>34,84%</t>
         </is>
       </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>32,08%</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>33,11%</t>
-        </is>
-      </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>32,18%</t>
+          <t>32,94%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>34,01%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>32,63%</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>27,93%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1104,77 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>22,42; 42,71</t>
+          <t>22,97; 42,96</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>19,78; 45,86</t>
+          <t>20,32; 44,79</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>19,12; 42,78</t>
+          <t>19,43; 46,98</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>17,21; 42,85</t>
+          <t>17,3; 44,53</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>31,67; 46,33</t>
+          <t>15,06; 44,18</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>25,8; 43,16</t>
+          <t>31,09; 47,74</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>29,13; 49,0</t>
+          <t>27,45; 44,98</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>28,87; 47,54</t>
+          <t>30,31; 49,37</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>28,23; 41,73</t>
+          <t>28,26; 47,2</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>25,84; 40,99</t>
+          <t>22,08; 43,8</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>26,26; 41,58</t>
+          <t>28,34; 41,44</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>25,22; 40,5</t>
+          <t>26,61; 41,5</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>25,87; 42,29</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>25,71; 42,34</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>21,06; 37,93</t>
         </is>
       </c>
     </row>
@@ -1076,62 +1191,77 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>20,49%</t>
+          <t>20,5%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>21,9%</t>
+          <t>21,14%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>21,28%</t>
+          <t>21,53%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>23,15%</t>
+          <t>23,12%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
+          <t>14,35%</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
           <t>30,83%</t>
         </is>
       </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>28,46%</t>
-        </is>
-      </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>27,61%</t>
+          <t>28,15%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>27,28%</t>
+          <t>27,79%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
+          <t>27,6%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>18,85%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
           <t>25,64%</t>
         </is>
       </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>25,17%</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>24,4%</t>
-        </is>
-      </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>25,19%</t>
+          <t>24,63%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>24,62%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>25,34%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>16,62%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1274,84 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>18,06; 23,6</t>
+          <t>18,02; 23,34</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>18,81; 25,43</t>
+          <t>18,08; 24,35</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>17,98; 25,83</t>
+          <t>18,23; 25,79</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>19,55; 27,78</t>
+          <t>19,61; 27,62</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>28,05; 33,5</t>
+          <t>11,71; 17,86</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>25,94; 31,42</t>
+          <t>28,16; 33,48</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>24,96; 30,63</t>
+          <t>25,82; 31,22</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>24,68; 30,23</t>
+          <t>25,1; 31,23</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>23,86; 27,62</t>
+          <t>24,63; 30,58</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>23,18; 27,48</t>
+          <t>16,02; 22,13</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>21,8; 26,8</t>
+          <t>23,79; 27,53</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>22,94; 27,93</t>
+          <t>22,63; 26,57</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>22,56; 27,28</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>22,86; 27,96</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>14,81; 19,15</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
@@ -1207,12 +1359,1215 @@
   <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="M1:Q1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:Q16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población con &lt;=  900 euros de ingresos mensuales netos en el mes anterior (tasa de respuesta: 90,32%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Urbano</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>102.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>86.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>65.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>70.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>47.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>183.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>138.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>113.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>128.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>64.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>285.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>224.0</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>178.0</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>198.0</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>111.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>278937</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>272267</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>183464</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>223283</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>162118</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>434043</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>387885</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>260940</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>303937</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>220423</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>712980</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>660152</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>444404</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>527220</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>382541</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>230356; 357049</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>217263; 338175</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>137332; 252852</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>174033; 313101</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>120454; 219028</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>382027; 488089</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>329604; 446479</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>223336; 303814</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>255548; 350767</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>170121; 284034</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>637172; 791358</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>579083; 753236</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>383579; 523317</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>454150; 614581</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>309735; 459609</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Intermedio</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>95.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>87.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>75.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>80.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>51.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>170.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>134.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>101.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>111.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>79.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>265.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>221.0</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>176.0</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>191.0</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>130.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>243073</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>281166</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>208010</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>269096</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>183445</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>387625</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>365191</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>232343</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>259933</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>260834</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>630699</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>646358</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>440353</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>529029</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>444279</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>198904; 299429</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>222349; 355305</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>164172; 264783</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>211332; 339642</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>135545; 244663</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>341333; 437885</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>312152; 421250</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>193403; 273788</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>217467; 314039</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>209463; 333588</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>565439; 706978</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>566823; 735238</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>376568; 507770</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>459478; 605617</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>370565; 538169</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>36.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>58.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>45.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>37.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>41.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>94.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>72.0</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>58.0</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>61.0</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>48.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>120443</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>114977</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>71926</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>75998</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>98233</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>138303</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>130278</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>88359</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>98807</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>113765</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>258746</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>245254</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>160284</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>174805</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>211997</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>88334; 165186</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>78473; 172953</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>47907; 115826</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>47828; 123093</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>59679; 175045</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>111351; 170960</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>98334; 161145</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>68103; 110925</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>73293; 122391</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>80083; 158888</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>210464; 307745</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>198117; 308915</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>121911; 199295</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>137720; 226824</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>159862; 287892</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>233.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>200.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>161.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>170.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>118.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>411.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>317.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>251.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>280.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>171.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>644.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>517.0</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>412.0</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>450.0</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>289.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>642453</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>668410</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>463400</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>568376</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>443796</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>959972</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>883354</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>581641</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>662677</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>595022</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>1602424</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>1551764</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>1045042</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>1231054</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>1038818</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>564863; 731743</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>571561; 769936</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>392346; 555096</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>482043; 678961</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>362058; 552513</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>876814; 1042530</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>810442; 979735</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>525341; 653518</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>591300; 734176</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>505580; 698640</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>1486431; 1720493</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>1425375; 1673994</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>957706; 1158224</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>1110552; 1358534</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>925461; 1196643</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
